--- a/results/multilabel_powerset.xlsx
+++ b/results/multilabel_powerset.xlsx
@@ -477,27 +477,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.327 (0.321 Â± 0.005)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.489 (0.476 Â± 0.010)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.741 (0.730 Â± 0.012)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.741 (0.726 Â± 0.016)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.258 (0.238 Â± 0.019)</t>
         </is>
       </c>
     </row>
@@ -509,27 +509,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.379 (0.304 Â± 0.039)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.516 (0.475 Â± 0.018)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.738 (0.705 Â± 0.014)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.799 (0.742 Â± 0.026)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.229 (0.191 Â± 0.021)</t>
         </is>
       </c>
     </row>
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.351 (0.258 Â± 0.037)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.487 (0.430 Â± 0.034)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.695 (0.663 Â± 0.023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.716 (0.679 Â± 0.024)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.209 (0.173 Â± 0.018)</t>
         </is>
       </c>
     </row>
@@ -573,27 +573,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.349 (0.275 Â± 0.043)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.474 (0.227 Â± 0.148)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.746 (0.533 Â± 0.283)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.800 (0.625 Â± 0.151)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.217 (0.171 Â± 0.023)</t>
         </is>
       </c>
     </row>
@@ -605,27 +605,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.363 (0.303 Â± 0.032)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.533 (0.492 Â± 0.026)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.764 (0.718 Â± 0.015)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.796 (0.749 Â± 0.021)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.230 (0.198 Â± 0.018)</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.469 (0.468 Â± 0.001)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,27 +701,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.369 (0.316 Â± 0.040)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.496 (0.464 Â± 0.022)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.745 (0.717 Â± 0.016)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.772 (0.723 Â± 0.024)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.224 (0.157 Â± 0.050)</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.456 (0.450 Â± 0.005)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -765,27 +765,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.281 (0.166 Â± 0.070)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.370 (0.307 Â± 0.045)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.565 (0.489 Â± 0.047)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.607 (0.472 Â± 0.143)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.180 (0.106 Â± 0.044)</t>
         </is>
       </c>
     </row>
@@ -797,22 +797,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.294 (0.274 Â± 0.016)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.506 (0.463 Â± 0.028)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.663 (0.337 Â± 0.325)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.773 (0.773 Â± 0.000)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -829,27 +829,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.094 (0.045 Â± 0.023)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.146 (0.099 Â± 0.033)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.308 (0.173 Â± 0.081)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.299 (0.235 Â± 0.040)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.018 (0.005 Â± 0.005)</t>
         </is>
       </c>
     </row>
@@ -925,27 +925,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.389 (0.313 Â± 0.038)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.495 (0.455 Â± 0.020)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.752 (0.713 Â± 0.018)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.781 (0.726 Â± 0.022)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.224 (0.191 Â± 0.017)</t>
         </is>
       </c>
     </row>
@@ -957,27 +957,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.385 (0.305 Â± 0.033)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.504 (0.460 Â± 0.022)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.734 (0.702 Â± 0.019)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.753 (0.704 Â± 0.024)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0.213 (0.184 Â± 0.017)</t>
         </is>
       </c>
     </row>
@@ -1040,27 +1040,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:47 (00:05:32 Â± 00:00:48)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:59 (00:08:18 Â± 00:02:34)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:51 (00:08:30 Â± 00:04:46)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:54 (00:10:22 Â± 00:06:53)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:06:10 (00:27:23 Â± 00:13:09)</t>
         </is>
       </c>
     </row>
@@ -1072,27 +1072,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:33 (00:00:50 Â± 00:00:21)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:05 (00:01:22 Â± 00:00:11)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:44 (00:02:21 Â± 00:01:50)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:28 (00:03:38 Â± 00:01:36)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:03 (00:06:33 Â± 00:01:07)</t>
         </is>
       </c>
     </row>
@@ -1104,27 +1104,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:26 (00:00:35 Â± 00:00:08)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:43 (00:00:59 Â± 00:00:16)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:03:25 (00:03:56 Â± 00:00:38)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:16 (00:01:40 Â± 00:00:21)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:00 (00:01:21 Â± 00:00:19)</t>
         </is>
       </c>
     </row>
@@ -1136,27 +1136,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:13 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:13 Â± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:08 (00:05:14 Â± 00:00:03)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:07 (00:05:13 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:08 (00:05:16 Â± 00:00:04)</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:58 (00:05:03 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:06 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:57 (00:05:00 Â± 00:00:03)</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:03 (00:05:06 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1264,27 +1264,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:59 (00:05:01 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:04 Â± 00:00:03)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:03 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:00 (00:05:07 Â± 00:00:15)</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1328,27 +1328,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:06 (00:05:07 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:03 (00:05:07 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:16 (00:05:54 Â± 00:00:26)</t>
         </is>
       </c>
     </row>
@@ -1360,22 +1360,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:01:12 (00:02:13 Â± 00:00:36)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:02:03 (00:05:11 Â± 00:02:05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:03:25 (00:03:43 Â± 00:00:17)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:02:04 (00:02:04 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1392,27 +1392,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:02 (00:00:03 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:08 (00:00:09 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:11 (00:00:14 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:19 (00:00:19 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1488,27 +1488,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:12:43 (01:21:38 Â± 00:46:22)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:28:15 (01:50:14 Â± 01:06:35)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:09:39 (03:14:13 Â± 01:29:18)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:19:58 (00:58:47 Â± 00:46:34)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:09:28 (00:09:48 Â± 00:00:11)</t>
         </is>
       </c>
     </row>
@@ -1520,27 +1520,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:01 (00:05:26 Â± 00:00:17)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:03 (00:05:51 Â± 00:00:26)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:05 (00:06:10 Â± 00:01:52)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:03 (00:05:56 Â± 00:00:35)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:05:18 (00:06:48 Â± 00:01:27)</t>
         </is>
       </c>
     </row>
@@ -1603,27 +1603,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:03 (00:00:10 Â± 00:00:05)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:03 (00:00:09 Â± 00:00:04)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1635,27 +1635,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1667,27 +1667,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:09 (00:00:09 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1699,27 +1699,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
     </row>
@@ -1731,27 +1731,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:02 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:04 Â± 00:00:02)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:05 Â± 00:00:01)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:03 Â± 00:00:02)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1827,27 +1827,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1891,27 +1891,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -1923,22 +1923,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1955,27 +1955,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2051,27 +2051,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2083,27 +2083,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
         </is>
       </c>
     </row>
@@ -2166,27 +2166,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2198,27 +2198,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2230,27 +2230,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2262,27 +2262,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2294,27 +2294,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2390,27 +2390,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2454,27 +2454,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[2, 3, 7, 11, 17, 31, 37, 41, 43, 53, 67, 71]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[2, 5, 7, 11, 19, 23, 31, 37, 41, 67, 71]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[2, 5, 7, 11, 13, 17, 19, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[2, 3, 5, 7, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2518,27 +2518,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2614,27 +2614,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2646,27 +2646,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[61]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2727,30 +2727,20 @@
           <t>4intelligence</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2759,30 +2749,20 @@
           <t>autogluon</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2791,30 +2771,20 @@
           <t>autokeras</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2823,30 +2793,20 @@
           <t>autopytorch</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B5" t="n">
+        <v>71</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2855,30 +2815,20 @@
           <t>autosklearn</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -2892,10 +2842,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C7" t="n">
+        <v>31</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2951,30 +2899,20 @@
           <t>flaml</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -2988,10 +2926,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="C10" t="n">
+        <v>37</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3015,30 +2951,20 @@
           <t>h2o</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B11" t="n">
+        <v>41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>71</v>
+      </c>
+      <c r="D11" t="n">
+        <v>53</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -3047,25 +2973,17 @@
           <t>lightautoml</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -3079,30 +2997,20 @@
           <t>lightwood</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -3155,30 +3063,20 @@
           <t>pycaret</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B16" t="n">
+        <v>71</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19</v>
+      </c>
+      <c r="E16" t="n">
+        <v>37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -3187,30 +3085,20 @@
           <t>tpot</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>61</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
